--- a/biology/Mycologie/Auriculariales/Auriculariales.xlsx
+++ b/biology/Mycologie/Auriculariales/Auriculariales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Auriculariales sont un ordre de champignons basidiomycètes. Les espèces de cet ordre étaient regroupées autrefois dans le taxon fourre-tout des « hétérobasidiomycètes »[1] ou « champignons en gelée » ou « champignons gélatineux », car beaucoup d'entre elles ont un sporophore gélatineux qui produit des spores sur des basides cloisonnées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Auriculariales sont un ordre de champignons basidiomycètes. Les espèces de cet ordre étaient regroupées autrefois dans le taxon fourre-tout des « hétérobasidiomycètes » ou « champignons en gelée » ou « champignons gélatineux », car beaucoup d'entre elles ont un sporophore gélatineux qui produit des spores sur des basides cloisonnées.
 Environ 200 espèces sont connues dans le monde entier, classées en six familles ou plus, mais la situation de ces familles est actuellement incertaine. Toutes les espèces d'Auriculariales sont considérées comme saprophytes, la plupart sur du bois mort. Plusieurs espèces du genre Auricularia sont cultivées pour l'alimentation à l'échelle commerciale, en particulier en Chine.
 </t>
         </is>
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste des familles et genres
-Aporpiaceae
+          <t>Liste des familles et genres</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Aporpiaceae
 Auriculariaceae
 Heteroscyphaceae
 Hyaloriaceae
@@ -541,8 +558,43 @@
 Pseudohydnum
 Renatobasidium
 Serendipita
-Stypella
-Selon NCBI  (25 mai 2011)[2]
+Stypella</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Auriculariales</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Auriculariales</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (25 mai 2011)[2]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 famille Auriculariaceae
 genre Auricularia
 famille Exidiaceae
